--- a/83188_New/909481339_Assign-2.xlsx
+++ b/83188_New/909481339_Assign-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e4c36dac90246b7/Documents/CSU/CSU Assignment Save/CPSC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{D6350194-5715-4B03-92A9-E0DA41C8C099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83E79CE4-66BF-42D7-A700-C420C02553BE}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{D6350194-5715-4B03-92A9-E0DA41C8C099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B85383-EF45-4131-AE4C-F8D5807AF416}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E5F2B50-E228-4BC8-9C7E-CD2012A759C2}"/>
   </bookViews>
@@ -16,13 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$6</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$3:$E$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$6:$E$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$7:$E$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -185,7 +178,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>2021 Revenue-Youtube</a:t>
+              <a:t>2021 Revenue</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -929,6 +922,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="587591135"/>
+        <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
         <a:noFill/>
@@ -1014,7 +1008,2534 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30AC-4176-9330-EF0CE98AD98C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6970000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-30AC-4176-9330-EF0CE98AD98C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-30AC-4176-9330-EF0CE98AD98C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="692607087"/>
+        <c:axId val="1066775471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="692607087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066775471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1066775471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="692607087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Revenue Comparison 2021</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-89B5-451F-B1AA-456806E82383}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-89B5-451F-B1AA-456806E82383}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-89B5-451F-B1AA-456806E82383}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-89B5-451F-B1AA-456806E82383}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:pattFill prst="pct75">
+                    <a:fgClr>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:fgClr>
+                    <a:bgClr>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:bgClr>
+                  </a:pattFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89B5-451F-B1AA-456806E82383}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Revenue Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d contourW="9525">
+          <a:contourClr>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:contourClr>
+        </a:sp3d>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:area3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7889999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2DA-4024-8414-0752CDEB028F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2DA-4024-8414-0752CDEB028F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1156499919"/>
+        <c:axId val="1142656527"/>
+        <c:axId val="1143579231"/>
+      </c:area3DChart>
+      <c:catAx>
+        <c:axId val="1156499919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142656527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1142656527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1156499919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1143579231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1142656527"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Revenue comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:area3DChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6970000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B7E-42B8-9366-D17BB622789D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent2"/>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B7E-42B8-9366-D17BB622789D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1287271343"/>
+        <c:axId val="1066763951"/>
+        <c:axId val="0"/>
+      </c:area3DChart>
+      <c:catAx>
+        <c:axId val="1287271343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1066763951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1066763951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1287271343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2021</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Q1 Revenue</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8571-4DB5-98CC-DB4EC2BD2B69}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8571-4DB5-98CC-DB4EC2BD2B69}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8571-4DB5-98CC-DB4EC2BD2B69}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Netflix</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Disney +</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TikTok</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>YouTube</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8571-4DB5-98CC-DB4EC2BD2B69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1112899967"/>
+        <c:axId val="1291337871"/>
+        <c:axId val="1280823263"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1112899967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1291337871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1291337871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1112899967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="1280823263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1291337871"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1582,6 +4103,2698 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="313">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1615,6 +6828,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CE0591-D73F-C615-9216-8051F845246A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>701040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD0267A-AA11-DC5E-F3F2-89A04F7C7C7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A27FB1-839E-D799-569B-6CDC4B6384AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF41E605-585C-707D-5825-0F09C1668568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6535B-EE74-4950-1905-51106D1AEAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2065,7 +7458,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A4" sqref="A4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
